--- a/excel/Registru Parohia DOMUS 2025.xlsx
+++ b/excel/Registru Parohia DOMUS 2025.xlsx
@@ -383,7 +383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,25 +393,16 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Bahnschrift"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -422,27 +413,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,13 +445,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5322,14 +5298,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -5940,14 +5928,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -6558,14 +6558,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -7176,14 +7188,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -7794,14 +7818,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -8412,14 +8448,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -9030,14 +9078,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -9648,14 +9708,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -10266,14 +10338,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -10884,14 +10968,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -11502,14 +11598,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -12096,14 +12204,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -12714,14 +12834,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -13332,14 +13464,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -13950,14 +14094,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -14568,14 +14724,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -15186,14 +15354,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -15804,14 +15984,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -16422,14 +16614,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -17040,14 +17244,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -17658,14 +17874,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -18276,14 +18504,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -18894,14 +19134,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -19512,14 +19764,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -20130,14 +20394,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -20748,14 +21024,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -21366,14 +21654,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -21984,14 +22284,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -22602,14 +22914,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -23220,14 +23544,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -23838,14 +24174,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -24456,14 +24804,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -25074,14 +25434,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -25692,14 +26064,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -26310,14 +26694,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -26928,14 +27324,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -27546,14 +27954,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -28164,14 +28584,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -28782,14 +29214,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -29400,14 +29844,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -30018,14 +30474,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -30636,14 +31104,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -31254,14 +31734,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -31872,14 +32364,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -32490,14 +32994,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -33108,14 +33624,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -33726,14 +34254,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -34344,14 +34884,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -34962,14 +35514,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -35580,14 +36144,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -36198,14 +36774,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
@@ -36816,14 +37404,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1">
       <c r="A10" s="2">
         <f>='Raport general 2025'!D5</f>
         <v>0</v>
